--- a/SOCE.Library/SOCE.Library.UI/Resources/ProjectList.xlsx
+++ b/SOCE.Library/SOCE.Library.UI/Resources/ProjectList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnoe\Documents\GitHub\SOCE.Library\SOCE.Library\SOCE.Library.UI\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C5C2B8-6F64-455B-906E-EA39D8A5DE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69CE8F1-BC7D-4230-8D23-E981947E76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDAC9DFB-4095-4B62-A9A4-DA2852BE669F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDAC9DFB-4095-4B62-A9A4-DA2852BE669F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>PROJECT</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Remarks</t>
-  </si>
-  <si>
-    <t>Number of Projects:</t>
   </si>
   <si>
     <t>Percent
@@ -65,6 +62,32 @@
   <si>
     <t>Project 
 Manager</t>
+  </si>
+  <si>
+    <t>Week Of</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROJECT DESIGN SCHEDULE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - STATUS: (D) Design; (CA) Construction Administration; (H) Hold</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -74,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +133,22 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -132,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -192,11 +229,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,10 +272,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485100DC-0A0D-418E-BA9A-430F8269D7AF}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,11 +613,19 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -587,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>5</v>
@@ -607,7 +664,10 @@
       <c r="H3" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{5D40493D-CE69-43C8-8AF4-CDB5B286769B}">
       <formula1>"A, CA, H, W"</formula1>
     </dataValidation>
@@ -617,5 +677,11 @@
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Arial,Regular"&amp;14PROJECT SUMMARY&amp;R&amp;T
+&amp;D</oddHeader>
+    <oddFooter xml:space="preserve">&amp;R&amp;P of &amp;N </oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
--- a/SOCE.Library/SOCE.Library.UI/Resources/ProjectList.xlsx
+++ b/SOCE.Library/SOCE.Library.UI/Resources/ProjectList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnoe\Documents\GitHub\SOCE.Library\SOCE.Library\SOCE.Library.UI\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69CE8F1-BC7D-4230-8D23-E981947E76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07183FF7-9570-4834-BDE3-3D0540CB03FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDAC9DFB-4095-4B62-A9A4-DA2852BE669F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDAC9DFB-4095-4B62-A9A4-DA2852BE669F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,11 +275,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,7 +598,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,15 +617,15 @@
       <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -678,7 +678,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Arial,Regular"&amp;14PROJECT SUMMARY&amp;R&amp;T
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Arial,Regular"&amp;14PROJECT LIST&amp;R&amp;T
 &amp;D</oddHeader>
     <oddFooter xml:space="preserve">&amp;R&amp;P of &amp;N </oddFooter>
   </headerFooter>
